--- a/public/cost_advisor.xlsx
+++ b/public/cost_advisor.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
-  <si>
-    <t>EPYC Cloud Instance Advisory Recommendations</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+  <si>
+    <t>EPYC Cloud Cost Advisory Recommendations</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>Current Instance</t>
@@ -24,10 +27,7 @@
     <t>Current Monthly Cost</t>
   </si>
   <si>
-    <t>Current Instance Energy Consumption (kwh)</t>
-  </si>
-  <si>
-    <t>Current Instance Emission (kgco2eq)</t>
+    <t>Current Annual Cost</t>
   </si>
   <si>
     <t>UUID/Instance Name</t>
@@ -36,6 +36,9 @@
     <t>Cloud</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>Pricing Model</t>
   </si>
   <si>
@@ -45,13 +48,13 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>GOOD</t>
+    <t>Hourly Cost Optimization</t>
+  </si>
+  <si>
+    <t>Modernize</t>
+  </si>
+  <si>
+    <t>Modernize &amp; Downsize</t>
   </si>
   <si>
     <t>Instance</t>
@@ -63,22 +66,25 @@
     <t>Monthly Cost</t>
   </si>
   <si>
-    <t>Monthly Savings</t>
-  </si>
-  <si>
-    <t>Instance Energy Consumption (kwh)</t>
-  </si>
-  <si>
-    <t>Instance Emission (kgco2eq)</t>
+    <t>Annual Cost</t>
+  </si>
+  <si>
+    <t>Annual Savings</t>
+  </si>
+  <si>
+    <t>Savings (%)</t>
   </si>
   <si>
     <t>Performance Improvement</t>
   </si>
   <si>
-    <t>m7a.12xlarge</t>
-  </si>
-  <si>
-    <t>cbf79843-2a58-46b4-bac4-0bbab36491d9</t>
+    <t>af-south-1</t>
+  </si>
+  <si>
+    <t>c5.12xlarge</t>
+  </si>
+  <si>
+    <t>cd61c1c3-a226-4be3-978b-37d43c9fba4c</t>
   </si>
   <si>
     <t>AWS</t>
@@ -93,16 +99,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>c7a.16xlarge</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>m7a.16xlarge</t>
-  </si>
-  <si>
-    <t>r7a.16xlarge</t>
+    <t>c5a.12xlarge</t>
+  </si>
+  <si>
+    <t>EIA is recommended</t>
+  </si>
+  <si>
+    <t>c5a.8xlarge</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -111,6 +117,9 @@
     <t/>
   </si>
   <si>
+    <t>EIA is recommended: Please visit EIA application for more details.Note that annual savings have been excluded for the EIA recommendation, which may result in differences in savings.</t>
+  </si>
+  <si>
     <t>Note : Green color instances indicate positive savings.</t>
   </si>
   <si>
@@ -123,10 +132,13 @@
     <t>Total Savings</t>
   </si>
   <si>
+    <t>EIA is recommended: Please visit EIA application for more details. Note that annual savings have been excluded for the EIA recommendation, which may result in differences in savings.</t>
+  </si>
+  <si>
     <t>Disclaimer: THE MATERIALS PROVIDED THROUGH THIS TOOL ARE PROVIDED 'AS IF', WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
   </si>
   <si>
-    <t>Cloud instance recommendation generated using AMD EPYC Cloud Instance Advisor</t>
+    <t>Cloud instance recommendation generated using AMD EPYC Cloud Cost Advisor</t>
   </si>
   <si>
     <t>Copyright - 2025 Advanced Microdevices Inc.</t>
@@ -158,7 +170,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +180,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="16"/>
@@ -212,9 +229,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="11"/>
+      <alignment horizontal="left" indent="15"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,46 +575,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="35" customWidth="1"/>
-    <col min="21" max="21" width="30" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="25" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="20" customWidth="1"/>
-    <col min="27" max="27" width="35" customWidth="1"/>
-    <col min="28" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="25" customWidth="1"/>
+    <col min="1" max="33" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" ht="40" customHeight="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +620,9 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,32 +653,35 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -693,9 +691,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
@@ -715,7 +711,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>14</v>
@@ -736,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>14</v>
@@ -756,208 +752,219 @@
       <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AE3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2030.92</v>
-      </c>
-      <c r="C4" s="3">
-        <v>727.57</v>
-      </c>
-      <c r="D4" s="3">
-        <v>85.34</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1997.28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23967.36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2397.67</v>
-      </c>
       <c r="M4" s="4">
-        <v>-366.75</v>
-      </c>
-      <c r="N4" s="3">
-        <v>347.24</v>
-      </c>
-      <c r="O4" s="3">
-        <v>40.71</v>
+        <v>1804.56</v>
+      </c>
+      <c r="N4" s="4">
+        <v>21654.72</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2312.64</v>
       </c>
       <c r="P4" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+        <v>9.65</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="4">
-        <v>2707.89</v>
+      <c r="S4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T4" s="4">
-        <v>-676.97</v>
-      </c>
-      <c r="U4" s="3">
-        <v>481.07</v>
-      </c>
-      <c r="V4" s="3">
-        <v>56.44</v>
+        <v>2378.63</v>
+      </c>
+      <c r="U4" s="4">
+        <v>28543.61</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="W4" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="X4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>2356.24</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>28274.84</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>3554.22</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>-1523.3</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>748.94</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>87.77</v>
-      </c>
       <c r="AD4" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="AE4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.51</v>
+      </c>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2030.92</v>
-      </c>
-      <c r="C5" s="3">
-        <v>727.57</v>
-      </c>
-      <c r="D5" s="3">
-        <v>85.34</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1997.28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23967.36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4">
-        <v>2397.67</v>
+        <v>33</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="M5" s="4">
-        <v>-366.75</v>
-      </c>
-      <c r="N5" s="3">
-        <v>347.24</v>
-      </c>
-      <c r="O5" s="3">
-        <v>40.71</v>
+        <v>1804.56</v>
+      </c>
+      <c r="N5" s="4">
+        <v>21654.72</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2312.64</v>
       </c>
       <c r="P5" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>9.65</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.76</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="4">
-        <v>2707.89</v>
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="T5" s="4">
-        <v>-676.97</v>
-      </c>
-      <c r="U5" s="3">
-        <v>481.07</v>
-      </c>
-      <c r="V5" s="3">
-        <v>56.44</v>
+        <v>2378.63</v>
+      </c>
+      <c r="U5" s="4">
+        <v>28543.61</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.76</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>3554.22</v>
+        <v>33</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="AA5" s="4">
-        <v>-1523.3</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>748.94</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>87.77</v>
+        <v>2356.24</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>28274.84</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
       </c>
       <c r="AD5" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="AE5" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.51</v>
+      </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="X2:AD2"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -967,6 +974,7 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -975,7 +983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="20" customWidth="1"/>
@@ -983,63 +991,68 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>24371.04</v>
+        <v>23967.36</v>
       </c>
       <c r="B3" s="4">
-        <v>28772.04</v>
+        <v>21654.72</v>
       </c>
       <c r="C3" s="4">
-        <v>-4401</v>
+        <v>2312.64</v>
       </c>
       <c r="D3" s="4">
-        <v>32494.68</v>
+        <v>28543.61</v>
       </c>
       <c r="E3" s="4">
-        <v>-8123.64</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>42650.64</v>
+        <v>28274.84</v>
       </c>
       <c r="G3" s="4">
-        <v>-18279.6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1061,22 +1074,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
